--- a/report_template.xlsx
+++ b/report_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\RAP project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72134AC8-9B4C-477F-AFA7-DB2F984A64C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281DBE0F-D3BE-4E6B-AD8A-681C3931B27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6DA141EA-A2F1-41D9-9961-7021959436C2}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>RTT Specialty Code</t>
   </si>
@@ -164,6 +164,21 @@
   </si>
   <si>
     <t>To expand the view to show earlier months use the '+' above to ungroup columns</t>
+  </si>
+  <si>
+    <t>Provider Elective Recovery Outpatient Collection (P-EROC)</t>
+  </si>
+  <si>
+    <t>Published</t>
+  </si>
+  <si>
+    <t>england.outpatient-transformation@nhs.net</t>
+  </si>
+  <si>
+    <t>TBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing provider EROC submissions are indicated as blank, grey cells. </t>
   </si>
 </sst>
 </file>
@@ -819,44 +834,43 @@
   <dimension ref="B1:AS38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI6" sqref="AI6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="13.1796875" customWidth="1"/>
     <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="10" width="15.81640625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="17.1796875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="15.453125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="14" width="16" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="16.7265625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="17" width="17.1796875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="16.7265625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="17.1796875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="16.7265625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="17.1796875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="16.7265625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="17.1796875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="16.7265625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="17.1796875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="17.453125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="16.7265625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="30" width="17.1796875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="17.453125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="17.1796875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="17.453125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="17.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="39" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="10" width="15.81640625" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="17.1796875" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="15.453125" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="14" width="16" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="16.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="17" width="17.1796875" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="16.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="17.1796875" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="16.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="17.1796875" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="16.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="17.1796875" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="16.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="17.1796875" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="17.453125" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="16.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="30" width="17.1796875" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="17.453125" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="17.1796875" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="17.453125" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="39" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="43" max="45" width="17.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
@@ -864,7 +878,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="2:45" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
@@ -872,45 +886,53 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="2:45" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="2:45" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="2:45" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="2:45" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="2:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:41" x14ac:dyDescent="0.35">
       <c r="AH10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:45" ht="42" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:41" ht="42" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,20 +1053,8 @@
       <c r="AO11" s="24">
         <v>45536</v>
       </c>
-      <c r="AP11" s="24">
-        <v>45566</v>
-      </c>
-      <c r="AQ11" s="24">
-        <v>45597</v>
-      </c>
-      <c r="AR11" s="24">
-        <v>45627</v>
-      </c>
-      <c r="AS11" s="24">
-        <v>45658</v>
-      </c>
-    </row>
-    <row r="12" spans="2:45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="20"/>
@@ -1085,12 +1095,8 @@
       <c r="AM12" s="20"/>
       <c r="AN12" s="20"/>
       <c r="AO12" s="20"/>
-      <c r="AP12" s="20"/>
-      <c r="AQ12" s="20"/>
-      <c r="AR12" s="20"/>
-      <c r="AS12" s="20"/>
-    </row>
-    <row r="13" spans="2:45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="20"/>
@@ -1131,12 +1137,8 @@
       <c r="AM13" s="20"/>
       <c r="AN13" s="20"/>
       <c r="AO13" s="20"/>
-      <c r="AP13" s="20"/>
-      <c r="AQ13" s="20"/>
-      <c r="AR13" s="20"/>
-      <c r="AS13" s="20"/>
-    </row>
-    <row r="14" spans="2:45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="20"/>
@@ -1177,12 +1179,8 @@
       <c r="AM14" s="20"/>
       <c r="AN14" s="20"/>
       <c r="AO14" s="20"/>
-      <c r="AP14" s="20"/>
-      <c r="AQ14" s="20"/>
-      <c r="AR14" s="20"/>
-      <c r="AS14" s="20"/>
-    </row>
-    <row r="15" spans="2:45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="20"/>
@@ -1223,12 +1221,8 @@
       <c r="AM15" s="20"/>
       <c r="AN15" s="20"/>
       <c r="AO15" s="20"/>
-      <c r="AP15" s="20"/>
-      <c r="AQ15" s="20"/>
-      <c r="AR15" s="20"/>
-      <c r="AS15" s="20"/>
-    </row>
-    <row r="16" spans="2:45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="20"/>
@@ -1269,12 +1263,8 @@
       <c r="AM16" s="20"/>
       <c r="AN16" s="20"/>
       <c r="AO16" s="20"/>
-      <c r="AP16" s="20"/>
-      <c r="AQ16" s="20"/>
-      <c r="AR16" s="20"/>
-      <c r="AS16" s="20"/>
-    </row>
-    <row r="17" spans="2:45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="20"/>
@@ -1315,12 +1305,8 @@
       <c r="AM17" s="20"/>
       <c r="AN17" s="20"/>
       <c r="AO17" s="20"/>
-      <c r="AP17" s="20"/>
-      <c r="AQ17" s="20"/>
-      <c r="AR17" s="20"/>
-      <c r="AS17" s="20"/>
-    </row>
-    <row r="18" spans="2:45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="20"/>
@@ -1361,12 +1347,8 @@
       <c r="AM18" s="20"/>
       <c r="AN18" s="20"/>
       <c r="AO18" s="20"/>
-      <c r="AP18" s="20"/>
-      <c r="AQ18" s="20"/>
-      <c r="AR18" s="20"/>
-      <c r="AS18" s="20"/>
-    </row>
-    <row r="19" spans="2:45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="20"/>
@@ -1407,12 +1389,8 @@
       <c r="AM19" s="20"/>
       <c r="AN19" s="20"/>
       <c r="AO19" s="20"/>
-      <c r="AP19" s="20"/>
-      <c r="AQ19" s="20"/>
-      <c r="AR19" s="20"/>
-      <c r="AS19" s="20"/>
-    </row>
-    <row r="20" spans="2:45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="20"/>
@@ -1453,12 +1431,8 @@
       <c r="AM20" s="20"/>
       <c r="AN20" s="20"/>
       <c r="AO20" s="20"/>
-      <c r="AP20" s="20"/>
-      <c r="AQ20" s="20"/>
-      <c r="AR20" s="20"/>
-      <c r="AS20" s="20"/>
-    </row>
-    <row r="21" spans="2:45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="20"/>
@@ -1499,12 +1473,8 @@
       <c r="AM21" s="20"/>
       <c r="AN21" s="20"/>
       <c r="AO21" s="20"/>
-      <c r="AP21" s="20"/>
-      <c r="AQ21" s="20"/>
-      <c r="AR21" s="20"/>
-      <c r="AS21" s="20"/>
-    </row>
-    <row r="22" spans="2:45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="20"/>
@@ -1545,12 +1515,8 @@
       <c r="AM22" s="20"/>
       <c r="AN22" s="20"/>
       <c r="AO22" s="20"/>
-      <c r="AP22" s="20"/>
-      <c r="AQ22" s="20"/>
-      <c r="AR22" s="20"/>
-      <c r="AS22" s="20"/>
-    </row>
-    <row r="23" spans="2:45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="20"/>
@@ -1591,12 +1557,8 @@
       <c r="AM23" s="20"/>
       <c r="AN23" s="20"/>
       <c r="AO23" s="20"/>
-      <c r="AP23" s="20"/>
-      <c r="AQ23" s="20"/>
-      <c r="AR23" s="20"/>
-      <c r="AS23" s="20"/>
-    </row>
-    <row r="24" spans="2:45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="20"/>
@@ -1637,12 +1599,8 @@
       <c r="AM24" s="20"/>
       <c r="AN24" s="20"/>
       <c r="AO24" s="20"/>
-      <c r="AP24" s="20"/>
-      <c r="AQ24" s="20"/>
-      <c r="AR24" s="20"/>
-      <c r="AS24" s="20"/>
-    </row>
-    <row r="25" spans="2:45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="20"/>
@@ -1683,12 +1641,8 @@
       <c r="AM25" s="20"/>
       <c r="AN25" s="20"/>
       <c r="AO25" s="20"/>
-      <c r="AP25" s="20"/>
-      <c r="AQ25" s="20"/>
-      <c r="AR25" s="20"/>
-      <c r="AS25" s="20"/>
-    </row>
-    <row r="26" spans="2:45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="20"/>
@@ -1729,12 +1683,8 @@
       <c r="AM26" s="20"/>
       <c r="AN26" s="20"/>
       <c r="AO26" s="20"/>
-      <c r="AP26" s="20"/>
-      <c r="AQ26" s="20"/>
-      <c r="AR26" s="20"/>
-      <c r="AS26" s="20"/>
-    </row>
-    <row r="27" spans="2:45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="20"/>
@@ -1775,12 +1725,8 @@
       <c r="AM27" s="20"/>
       <c r="AN27" s="20"/>
       <c r="AO27" s="20"/>
-      <c r="AP27" s="20"/>
-      <c r="AQ27" s="20"/>
-      <c r="AR27" s="20"/>
-      <c r="AS27" s="20"/>
-    </row>
-    <row r="28" spans="2:45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="20"/>
@@ -1821,12 +1767,8 @@
       <c r="AM28" s="20"/>
       <c r="AN28" s="20"/>
       <c r="AO28" s="20"/>
-      <c r="AP28" s="20"/>
-      <c r="AQ28" s="20"/>
-      <c r="AR28" s="20"/>
-      <c r="AS28" s="20"/>
-    </row>
-    <row r="29" spans="2:45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="20"/>
@@ -1867,12 +1809,8 @@
       <c r="AM29" s="20"/>
       <c r="AN29" s="20"/>
       <c r="AO29" s="20"/>
-      <c r="AP29" s="20"/>
-      <c r="AQ29" s="20"/>
-      <c r="AR29" s="20"/>
-      <c r="AS29" s="20"/>
-    </row>
-    <row r="30" spans="2:45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B30" s="6"/>
       <c r="C30" s="5"/>
       <c r="D30" s="20"/>
@@ -1913,12 +1851,8 @@
       <c r="AM30" s="20"/>
       <c r="AN30" s="20"/>
       <c r="AO30" s="20"/>
-      <c r="AP30" s="20"/>
-      <c r="AQ30" s="20"/>
-      <c r="AR30" s="20"/>
-      <c r="AS30" s="20"/>
-    </row>
-    <row r="31" spans="2:45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
       <c r="C31" s="5"/>
       <c r="D31" s="20"/>
@@ -1959,12 +1893,8 @@
       <c r="AM31" s="20"/>
       <c r="AN31" s="20"/>
       <c r="AO31" s="20"/>
-      <c r="AP31" s="20"/>
-      <c r="AQ31" s="20"/>
-      <c r="AR31" s="20"/>
-      <c r="AS31" s="20"/>
-    </row>
-    <row r="32" spans="2:45" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
       <c r="C32" s="5"/>
       <c r="D32" s="20"/>
@@ -2005,10 +1935,6 @@
       <c r="AM32" s="20"/>
       <c r="AN32" s="20"/>
       <c r="AO32" s="20"/>
-      <c r="AP32" s="20"/>
-      <c r="AQ32" s="20"/>
-      <c r="AR32" s="20"/>
-      <c r="AS32" s="20"/>
     </row>
     <row r="33" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
@@ -2051,10 +1977,6 @@
       <c r="AM33" s="20"/>
       <c r="AN33" s="20"/>
       <c r="AO33" s="20"/>
-      <c r="AP33" s="20"/>
-      <c r="AQ33" s="20"/>
-      <c r="AR33" s="20"/>
-      <c r="AS33" s="20"/>
     </row>
     <row r="34" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
@@ -2097,10 +2019,6 @@
       <c r="AM34" s="20"/>
       <c r="AN34" s="20"/>
       <c r="AO34" s="20"/>
-      <c r="AP34" s="20"/>
-      <c r="AQ34" s="20"/>
-      <c r="AR34" s="20"/>
-      <c r="AS34" s="20"/>
     </row>
     <row r="35" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B35" s="7"/>
@@ -2143,106 +2061,42 @@
       <c r="AM35" s="21"/>
       <c r="AN35" s="21"/>
       <c r="AO35" s="22"/>
-      <c r="AP35" s="22"/>
-      <c r="AQ35" s="22"/>
-      <c r="AR35" s="22"/>
-      <c r="AS35" s="22"/>
     </row>
     <row r="36" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B36" s="7"/>
       <c r="C36" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="23">
-        <v>51789</v>
-      </c>
-      <c r="E36" s="23">
-        <v>65600</v>
-      </c>
-      <c r="F36" s="23">
-        <v>68763</v>
-      </c>
-      <c r="G36" s="23">
-        <v>82978</v>
-      </c>
-      <c r="H36" s="23">
-        <v>78473</v>
-      </c>
-      <c r="I36" s="23">
-        <v>84303</v>
-      </c>
-      <c r="J36" s="23">
-        <v>88327</v>
-      </c>
-      <c r="K36" s="23">
-        <v>106095</v>
-      </c>
-      <c r="L36" s="23">
-        <v>91060</v>
-      </c>
-      <c r="M36" s="23">
-        <v>112177</v>
-      </c>
-      <c r="N36" s="23">
-        <v>115816</v>
-      </c>
-      <c r="O36" s="23">
-        <v>114057</v>
-      </c>
-      <c r="P36" s="23">
-        <v>122584</v>
-      </c>
-      <c r="Q36" s="23">
-        <v>128864</v>
-      </c>
-      <c r="R36" s="23">
-        <v>135901</v>
-      </c>
-      <c r="S36" s="23">
-        <v>159058</v>
-      </c>
-      <c r="T36" s="23">
-        <v>130281</v>
-      </c>
-      <c r="U36" s="23">
-        <v>168460</v>
-      </c>
-      <c r="V36" s="23">
-        <v>161702</v>
-      </c>
-      <c r="W36" s="23">
-        <v>189302</v>
-      </c>
-      <c r="X36" s="23">
-        <v>162591</v>
-      </c>
-      <c r="Y36" s="23">
-        <v>196575</v>
-      </c>
-      <c r="Z36" s="23">
-        <v>207096</v>
-      </c>
-      <c r="AA36" s="23">
-        <v>201251</v>
-      </c>
-      <c r="AB36" s="23">
-        <v>204331</v>
-      </c>
-      <c r="AC36" s="23">
-        <v>214328</v>
-      </c>
-      <c r="AD36" s="23">
-        <v>234165</v>
-      </c>
-      <c r="AE36" s="23">
-        <v>257230</v>
-      </c>
-      <c r="AF36" s="23">
-        <v>199764</v>
-      </c>
-      <c r="AG36" s="23">
-        <v>254430</v>
-      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="23"/>
+      <c r="AD36" s="23"/>
+      <c r="AE36" s="23"/>
+      <c r="AF36" s="23"/>
+      <c r="AG36" s="23"/>
       <c r="AH36" s="23"/>
       <c r="AI36" s="23"/>
       <c r="AJ36" s="23"/>
@@ -2251,10 +2105,6 @@
       <c r="AM36" s="23"/>
       <c r="AN36" s="23"/>
       <c r="AO36" s="23"/>
-      <c r="AP36" s="23"/>
-      <c r="AQ36" s="23"/>
-      <c r="AR36" s="23"/>
-      <c r="AS36" s="23"/>
     </row>
     <row r="37" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B37" s="7"/>
@@ -2359,7 +2209,7 @@
   <dimension ref="B2:AX153"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -2391,35 +2241,45 @@
       <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="2:50" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="2:50" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="2:50" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="2:50" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="2:50" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9830,19 +9690,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="30dd1bc9-520c-4869-8c8c-9a8c02d447dc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000611BC576570B445AD683FFF8493BECF" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8f98cbd5f5efdf85b388a7f4f496b5c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="30dd1bc9-520c-4869-8c8c-9a8c02d447dc" xmlns:ns3="cb757152-6290-4f10-9526-458cf73e4534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d01b020bb47f93ef4b15ba88ec310de" ns2:_="" ns3:_="">
     <xsd:import namespace="30dd1bc9-520c-4869-8c8c-9a8c02d447dc"/>
@@ -10055,7 +9902,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -10064,24 +9911,20 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{835ABA4C-D6EA-49A5-9060-312A4F715216}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="30dd1bc9-520c-4869-8c8c-9a8c02d447dc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="cb757152-6290-4f10-9526-458cf73e4534"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="30dd1bc9-520c-4869-8c8c-9a8c02d447dc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54D2CF6A-BE6D-4F0E-8693-F13D78BF2116}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10100,10 +9943,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{303203A5-A967-4128-8341-A09995CFC842}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{835ABA4C-D6EA-49A5-9060-312A4F715216}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="30dd1bc9-520c-4869-8c8c-9a8c02d447dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="cb757152-6290-4f10-9526-458cf73e4534"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/report_template.xlsx
+++ b/report_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\RAP project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anna.bulteel_RL4_EXT\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281DBE0F-D3BE-4E6B-AD8A-681C3931B27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82C98BBC-EA68-4265-A773-7068009FCB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6DA141EA-A2F1-41D9-9961-7021959436C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6DA141EA-A2F1-41D9-9961-7021959436C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Source Data &amp; Definitions" sheetId="6" r:id="rId1"/>
@@ -756,13 +756,13 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="27.54296875" customWidth="1"/>
+    <col min="2" max="5" width="27.5703125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>18</v>
       </c>
@@ -770,7 +770,7 @@
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
     </row>
-    <row r="3" spans="2:5" ht="264" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="264" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30" t="s">
         <v>19</v>
       </c>
@@ -778,7 +778,7 @@
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
     </row>
-    <row r="4" spans="2:5" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="31" t="s">
         <v>20</v>
       </c>
@@ -786,7 +786,7 @@
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
     </row>
-    <row r="5" spans="2:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
         <v>21</v>
       </c>
@@ -794,7 +794,7 @@
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="2:5" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="31" t="s">
         <v>22</v>
       </c>
@@ -802,7 +802,7 @@
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
     </row>
-    <row r="7" spans="2:5" ht="38.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="28" t="s">
         <v>23</v>
       </c>
@@ -837,40 +837,40 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
-    <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="10" width="15.81640625" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="17.1796875" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="15.453125" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="10" width="15.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1" outlineLevel="1"/>
     <col min="13" max="14" width="16" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="16.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="17" width="17.1796875" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="16.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="17.1796875" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="16.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="17.1796875" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="16.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="17.1796875" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="16.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="17.1796875" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="17.453125" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="16.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="30" width="17.1796875" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="17.453125" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="17.1796875" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="17.453125" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="39" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="17" width="17.140625" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="17.140625" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="16.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="17.140625" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="16.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="17.140625" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="16.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="17.140625" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="17.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="16.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="30" width="17.140625" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="17.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="17.140625" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="17.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="39" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:41" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
@@ -878,7 +878,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="2:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:41" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
@@ -886,7 +886,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="2:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:41" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
@@ -896,7 +896,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="2:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:41" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
@@ -906,7 +906,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="2:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:41" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
@@ -916,7 +916,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="2:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:41" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
@@ -926,13 +926,13 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:41" x14ac:dyDescent="0.25">
       <c r="AH10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:41" ht="42" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:41" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="12" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="20"/>
@@ -1096,7 +1096,7 @@
       <c r="AN12" s="20"/>
       <c r="AO12" s="20"/>
     </row>
-    <row r="13" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="20"/>
@@ -1138,7 +1138,7 @@
       <c r="AN13" s="20"/>
       <c r="AO13" s="20"/>
     </row>
-    <row r="14" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="20"/>
@@ -1180,7 +1180,7 @@
       <c r="AN14" s="20"/>
       <c r="AO14" s="20"/>
     </row>
-    <row r="15" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="20"/>
@@ -1222,7 +1222,7 @@
       <c r="AN15" s="20"/>
       <c r="AO15" s="20"/>
     </row>
-    <row r="16" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="20"/>
@@ -1264,7 +1264,7 @@
       <c r="AN16" s="20"/>
       <c r="AO16" s="20"/>
     </row>
-    <row r="17" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="20"/>
@@ -1306,7 +1306,7 @@
       <c r="AN17" s="20"/>
       <c r="AO17" s="20"/>
     </row>
-    <row r="18" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="20"/>
@@ -1348,7 +1348,7 @@
       <c r="AN18" s="20"/>
       <c r="AO18" s="20"/>
     </row>
-    <row r="19" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="20"/>
@@ -1390,7 +1390,7 @@
       <c r="AN19" s="20"/>
       <c r="AO19" s="20"/>
     </row>
-    <row r="20" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="20"/>
@@ -1432,7 +1432,7 @@
       <c r="AN20" s="20"/>
       <c r="AO20" s="20"/>
     </row>
-    <row r="21" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="20"/>
@@ -1474,7 +1474,7 @@
       <c r="AN21" s="20"/>
       <c r="AO21" s="20"/>
     </row>
-    <row r="22" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="20"/>
@@ -1516,7 +1516,7 @@
       <c r="AN22" s="20"/>
       <c r="AO22" s="20"/>
     </row>
-    <row r="23" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="20"/>
@@ -1558,7 +1558,7 @@
       <c r="AN23" s="20"/>
       <c r="AO23" s="20"/>
     </row>
-    <row r="24" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="20"/>
@@ -1600,7 +1600,7 @@
       <c r="AN24" s="20"/>
       <c r="AO24" s="20"/>
     </row>
-    <row r="25" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="20"/>
@@ -1642,7 +1642,7 @@
       <c r="AN25" s="20"/>
       <c r="AO25" s="20"/>
     </row>
-    <row r="26" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="20"/>
@@ -1684,7 +1684,7 @@
       <c r="AN26" s="20"/>
       <c r="AO26" s="20"/>
     </row>
-    <row r="27" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="20"/>
@@ -1726,7 +1726,7 @@
       <c r="AN27" s="20"/>
       <c r="AO27" s="20"/>
     </row>
-    <row r="28" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="20"/>
@@ -1768,7 +1768,7 @@
       <c r="AN28" s="20"/>
       <c r="AO28" s="20"/>
     </row>
-    <row r="29" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="20"/>
@@ -1810,7 +1810,7 @@
       <c r="AN29" s="20"/>
       <c r="AO29" s="20"/>
     </row>
-    <row r="30" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="5"/>
       <c r="D30" s="20"/>
@@ -1852,7 +1852,7 @@
       <c r="AN30" s="20"/>
       <c r="AO30" s="20"/>
     </row>
-    <row r="31" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="5"/>
       <c r="D31" s="20"/>
@@ -1894,7 +1894,7 @@
       <c r="AN31" s="20"/>
       <c r="AO31" s="20"/>
     </row>
-    <row r="32" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="5"/>
       <c r="D32" s="20"/>
@@ -1936,7 +1936,7 @@
       <c r="AN32" s="20"/>
       <c r="AO32" s="20"/>
     </row>
-    <row r="33" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="5"/>
       <c r="D33" s="20"/>
@@ -1978,7 +1978,7 @@
       <c r="AN33" s="20"/>
       <c r="AO33" s="20"/>
     </row>
-    <row r="34" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
       <c r="D34" s="20"/>
@@ -2020,7 +2020,7 @@
       <c r="AN34" s="20"/>
       <c r="AO34" s="20"/>
     </row>
-    <row r="35" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
       <c r="D35" s="21"/>
@@ -2062,7 +2062,7 @@
       <c r="AN35" s="21"/>
       <c r="AO35" s="22"/>
     </row>
-    <row r="36" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="9" t="s">
         <v>2</v>
@@ -2106,7 +2106,7 @@
       <c r="AN36" s="23"/>
       <c r="AO36" s="23"/>
     </row>
-    <row r="37" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
       <c r="D37" s="21"/>
@@ -2152,7 +2152,7 @@
       <c r="AR37" s="21"/>
       <c r="AS37" s="21"/>
     </row>
-    <row r="38" spans="2:45" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:45" x14ac:dyDescent="0.25">
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
@@ -2212,32 +2212,32 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.54296875" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" customWidth="1"/>
-    <col min="5" max="5" width="80.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="79.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="79.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="38" width="11" customWidth="1" outlineLevel="1"/>
     <col min="39" max="50" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:50" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:50" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="2:50" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:50" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="2:50" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:50" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="2:50" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:50" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="2:50" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:50" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="2:50" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:50" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="2:50" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:50" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>17</v>
       </c>
@@ -2282,13 +2282,13 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="2:50" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:50" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:50" x14ac:dyDescent="0.25">
       <c r="AM10" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:50" s="27" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:50" s="27" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="25" t="s">
         <v>12</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="12" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -2488,7 +2488,7 @@
       <c r="AW12" s="17"/>
       <c r="AX12" s="17"/>
     </row>
-    <row r="13" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -2539,7 +2539,7 @@
       <c r="AW13" s="17"/>
       <c r="AX13" s="17"/>
     </row>
-    <row r="14" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -2590,7 +2590,7 @@
       <c r="AW14" s="17"/>
       <c r="AX14" s="17"/>
     </row>
-    <row r="15" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -2641,7 +2641,7 @@
       <c r="AW15" s="17"/>
       <c r="AX15" s="17"/>
     </row>
-    <row r="16" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -2692,7 +2692,7 @@
       <c r="AW16" s="17"/>
       <c r="AX16" s="17"/>
     </row>
-    <row r="17" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -2743,7 +2743,7 @@
       <c r="AW17" s="17"/>
       <c r="AX17" s="17"/>
     </row>
-    <row r="18" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -2794,7 +2794,7 @@
       <c r="AW18" s="17"/>
       <c r="AX18" s="17"/>
     </row>
-    <row r="19" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -2845,7 +2845,7 @@
       <c r="AW19" s="17"/>
       <c r="AX19" s="17"/>
     </row>
-    <row r="20" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -2896,7 +2896,7 @@
       <c r="AW20" s="17"/>
       <c r="AX20" s="17"/>
     </row>
-    <row r="21" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -2947,7 +2947,7 @@
       <c r="AW21" s="17"/>
       <c r="AX21" s="17"/>
     </row>
-    <row r="22" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -2998,7 +2998,7 @@
       <c r="AW22" s="17"/>
       <c r="AX22" s="17"/>
     </row>
-    <row r="23" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -3049,7 +3049,7 @@
       <c r="AW23" s="17"/>
       <c r="AX23" s="17"/>
     </row>
-    <row r="24" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -3100,7 +3100,7 @@
       <c r="AW24" s="17"/>
       <c r="AX24" s="17"/>
     </row>
-    <row r="25" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
@@ -3151,7 +3151,7 @@
       <c r="AW25" s="17"/>
       <c r="AX25" s="17"/>
     </row>
-    <row r="26" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -3202,7 +3202,7 @@
       <c r="AW26" s="17"/>
       <c r="AX26" s="17"/>
     </row>
-    <row r="27" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -3253,7 +3253,7 @@
       <c r="AW27" s="17"/>
       <c r="AX27" s="17"/>
     </row>
-    <row r="28" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -3304,7 +3304,7 @@
       <c r="AW28" s="17"/>
       <c r="AX28" s="17"/>
     </row>
-    <row r="29" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -3355,7 +3355,7 @@
       <c r="AW29" s="17"/>
       <c r="AX29" s="17"/>
     </row>
-    <row r="30" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -3406,7 +3406,7 @@
       <c r="AW30" s="17"/>
       <c r="AX30" s="17"/>
     </row>
-    <row r="31" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -3457,7 +3457,7 @@
       <c r="AW31" s="17"/>
       <c r="AX31" s="17"/>
     </row>
-    <row r="32" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -3508,7 +3508,7 @@
       <c r="AW32" s="17"/>
       <c r="AX32" s="17"/>
     </row>
-    <row r="33" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -3559,7 +3559,7 @@
       <c r="AW33" s="17"/>
       <c r="AX33" s="17"/>
     </row>
-    <row r="34" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -3610,7 +3610,7 @@
       <c r="AW34" s="17"/>
       <c r="AX34" s="17"/>
     </row>
-    <row r="35" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -3661,7 +3661,7 @@
       <c r="AW35" s="17"/>
       <c r="AX35" s="17"/>
     </row>
-    <row r="36" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -3712,7 +3712,7 @@
       <c r="AW36" s="17"/>
       <c r="AX36" s="17"/>
     </row>
-    <row r="37" spans="2:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
@@ -3763,7 +3763,7 @@
       <c r="AW37" s="18"/>
       <c r="AX37" s="18"/>
     </row>
-    <row r="38" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -3814,7 +3814,7 @@
       <c r="AW38" s="17"/>
       <c r="AX38" s="17"/>
     </row>
-    <row r="39" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -3865,7 +3865,7 @@
       <c r="AW39" s="17"/>
       <c r="AX39" s="17"/>
     </row>
-    <row r="40" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -3916,7 +3916,7 @@
       <c r="AW40" s="17"/>
       <c r="AX40" s="17"/>
     </row>
-    <row r="41" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -3967,7 +3967,7 @@
       <c r="AW41" s="17"/>
       <c r="AX41" s="17"/>
     </row>
-    <row r="42" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
@@ -4018,7 +4018,7 @@
       <c r="AW42" s="17"/>
       <c r="AX42" s="17"/>
     </row>
-    <row r="43" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
@@ -4069,7 +4069,7 @@
       <c r="AW43" s="17"/>
       <c r="AX43" s="17"/>
     </row>
-    <row r="44" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -4120,7 +4120,7 @@
       <c r="AW44" s="17"/>
       <c r="AX44" s="17"/>
     </row>
-    <row r="45" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -4171,7 +4171,7 @@
       <c r="AW45" s="17"/>
       <c r="AX45" s="17"/>
     </row>
-    <row r="46" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -4222,7 +4222,7 @@
       <c r="AW46" s="17"/>
       <c r="AX46" s="17"/>
     </row>
-    <row r="47" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
@@ -4273,7 +4273,7 @@
       <c r="AW47" s="17"/>
       <c r="AX47" s="17"/>
     </row>
-    <row r="48" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -4324,7 +4324,7 @@
       <c r="AW48" s="17"/>
       <c r="AX48" s="17"/>
     </row>
-    <row r="49" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -4375,7 +4375,7 @@
       <c r="AW49" s="17"/>
       <c r="AX49" s="17"/>
     </row>
-    <row r="50" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -4426,7 +4426,7 @@
       <c r="AW50" s="17"/>
       <c r="AX50" s="17"/>
     </row>
-    <row r="51" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -4477,7 +4477,7 @@
       <c r="AW51" s="17"/>
       <c r="AX51" s="17"/>
     </row>
-    <row r="52" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -4528,7 +4528,7 @@
       <c r="AW52" s="17"/>
       <c r="AX52" s="17"/>
     </row>
-    <row r="53" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -4579,7 +4579,7 @@
       <c r="AW53" s="17"/>
       <c r="AX53" s="17"/>
     </row>
-    <row r="54" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -4630,7 +4630,7 @@
       <c r="AW54" s="17"/>
       <c r="AX54" s="17"/>
     </row>
-    <row r="55" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -4681,7 +4681,7 @@
       <c r="AW55" s="17"/>
       <c r="AX55" s="17"/>
     </row>
-    <row r="56" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -4732,7 +4732,7 @@
       <c r="AW56" s="17"/>
       <c r="AX56" s="17"/>
     </row>
-    <row r="57" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -4783,7 +4783,7 @@
       <c r="AW57" s="17"/>
       <c r="AX57" s="17"/>
     </row>
-    <row r="58" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -4834,7 +4834,7 @@
       <c r="AW58" s="17"/>
       <c r="AX58" s="17"/>
     </row>
-    <row r="59" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -4885,7 +4885,7 @@
       <c r="AW59" s="17"/>
       <c r="AX59" s="17"/>
     </row>
-    <row r="60" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
@@ -4936,7 +4936,7 @@
       <c r="AW60" s="17"/>
       <c r="AX60" s="17"/>
     </row>
-    <row r="61" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -4987,7 +4987,7 @@
       <c r="AW61" s="17"/>
       <c r="AX61" s="17"/>
     </row>
-    <row r="62" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -5038,7 +5038,7 @@
       <c r="AW62" s="17"/>
       <c r="AX62" s="17"/>
     </row>
-    <row r="63" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
@@ -5089,7 +5089,7 @@
       <c r="AW63" s="17"/>
       <c r="AX63" s="17"/>
     </row>
-    <row r="64" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
@@ -5140,7 +5140,7 @@
       <c r="AW64" s="17"/>
       <c r="AX64" s="17"/>
     </row>
-    <row r="65" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -5191,7 +5191,7 @@
       <c r="AW65" s="17"/>
       <c r="AX65" s="17"/>
     </row>
-    <row r="66" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
@@ -5242,7 +5242,7 @@
       <c r="AW66" s="17"/>
       <c r="AX66" s="17"/>
     </row>
-    <row r="67" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -5293,7 +5293,7 @@
       <c r="AW67" s="17"/>
       <c r="AX67" s="17"/>
     </row>
-    <row r="68" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -5344,7 +5344,7 @@
       <c r="AW68" s="17"/>
       <c r="AX68" s="17"/>
     </row>
-    <row r="69" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
@@ -5395,7 +5395,7 @@
       <c r="AW69" s="17"/>
       <c r="AX69" s="17"/>
     </row>
-    <row r="70" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -5446,7 +5446,7 @@
       <c r="AW70" s="17"/>
       <c r="AX70" s="17"/>
     </row>
-    <row r="71" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -5497,7 +5497,7 @@
       <c r="AW71" s="17"/>
       <c r="AX71" s="17"/>
     </row>
-    <row r="72" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
@@ -5548,7 +5548,7 @@
       <c r="AW72" s="17"/>
       <c r="AX72" s="17"/>
     </row>
-    <row r="73" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
@@ -5599,7 +5599,7 @@
       <c r="AW73" s="17"/>
       <c r="AX73" s="17"/>
     </row>
-    <row r="74" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
@@ -5650,7 +5650,7 @@
       <c r="AW74" s="17"/>
       <c r="AX74" s="17"/>
     </row>
-    <row r="75" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -5701,7 +5701,7 @@
       <c r="AW75" s="17"/>
       <c r="AX75" s="17"/>
     </row>
-    <row r="76" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
@@ -5752,7 +5752,7 @@
       <c r="AW76" s="17"/>
       <c r="AX76" s="17"/>
     </row>
-    <row r="77" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -5803,7 +5803,7 @@
       <c r="AW77" s="17"/>
       <c r="AX77" s="17"/>
     </row>
-    <row r="78" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
@@ -5854,7 +5854,7 @@
       <c r="AW78" s="17"/>
       <c r="AX78" s="17"/>
     </row>
-    <row r="79" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
@@ -5905,7 +5905,7 @@
       <c r="AW79" s="17"/>
       <c r="AX79" s="17"/>
     </row>
-    <row r="80" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
@@ -5956,7 +5956,7 @@
       <c r="AW80" s="17"/>
       <c r="AX80" s="17"/>
     </row>
-    <row r="81" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
@@ -6007,7 +6007,7 @@
       <c r="AW81" s="17"/>
       <c r="AX81" s="17"/>
     </row>
-    <row r="82" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
@@ -6058,7 +6058,7 @@
       <c r="AW82" s="17"/>
       <c r="AX82" s="17"/>
     </row>
-    <row r="83" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
@@ -6109,7 +6109,7 @@
       <c r="AW83" s="17"/>
       <c r="AX83" s="17"/>
     </row>
-    <row r="84" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
@@ -6160,7 +6160,7 @@
       <c r="AW84" s="17"/>
       <c r="AX84" s="17"/>
     </row>
-    <row r="85" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
@@ -6211,7 +6211,7 @@
       <c r="AW85" s="17"/>
       <c r="AX85" s="17"/>
     </row>
-    <row r="86" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
@@ -6262,7 +6262,7 @@
       <c r="AW86" s="17"/>
       <c r="AX86" s="17"/>
     </row>
-    <row r="87" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
@@ -6313,7 +6313,7 @@
       <c r="AW87" s="17"/>
       <c r="AX87" s="17"/>
     </row>
-    <row r="88" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
@@ -6364,7 +6364,7 @@
       <c r="AW88" s="17"/>
       <c r="AX88" s="17"/>
     </row>
-    <row r="89" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
@@ -6415,7 +6415,7 @@
       <c r="AW89" s="17"/>
       <c r="AX89" s="17"/>
     </row>
-    <row r="90" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
@@ -6466,7 +6466,7 @@
       <c r="AW90" s="17"/>
       <c r="AX90" s="17"/>
     </row>
-    <row r="91" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
@@ -6517,7 +6517,7 @@
       <c r="AW91" s="17"/>
       <c r="AX91" s="17"/>
     </row>
-    <row r="92" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
@@ -6568,7 +6568,7 @@
       <c r="AW92" s="17"/>
       <c r="AX92" s="17"/>
     </row>
-    <row r="93" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
@@ -6619,7 +6619,7 @@
       <c r="AW93" s="17"/>
       <c r="AX93" s="17"/>
     </row>
-    <row r="94" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
@@ -6670,7 +6670,7 @@
       <c r="AW94" s="17"/>
       <c r="AX94" s="17"/>
     </row>
-    <row r="95" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
@@ -6721,7 +6721,7 @@
       <c r="AW95" s="17"/>
       <c r="AX95" s="17"/>
     </row>
-    <row r="96" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
@@ -6772,7 +6772,7 @@
       <c r="AW96" s="17"/>
       <c r="AX96" s="17"/>
     </row>
-    <row r="97" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
@@ -6823,7 +6823,7 @@
       <c r="AW97" s="17"/>
       <c r="AX97" s="17"/>
     </row>
-    <row r="98" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
@@ -6874,7 +6874,7 @@
       <c r="AW98" s="17"/>
       <c r="AX98" s="17"/>
     </row>
-    <row r="99" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
@@ -6925,7 +6925,7 @@
       <c r="AW99" s="17"/>
       <c r="AX99" s="17"/>
     </row>
-    <row r="100" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
@@ -6976,7 +6976,7 @@
       <c r="AW100" s="17"/>
       <c r="AX100" s="17"/>
     </row>
-    <row r="101" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
@@ -7027,7 +7027,7 @@
       <c r="AW101" s="17"/>
       <c r="AX101" s="17"/>
     </row>
-    <row r="102" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
@@ -7078,7 +7078,7 @@
       <c r="AW102" s="17"/>
       <c r="AX102" s="17"/>
     </row>
-    <row r="103" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
@@ -7129,7 +7129,7 @@
       <c r="AW103" s="17"/>
       <c r="AX103" s="17"/>
     </row>
-    <row r="104" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
@@ -7180,7 +7180,7 @@
       <c r="AW104" s="17"/>
       <c r="AX104" s="17"/>
     </row>
-    <row r="105" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
@@ -7231,7 +7231,7 @@
       <c r="AW105" s="17"/>
       <c r="AX105" s="17"/>
     </row>
-    <row r="106" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
@@ -7282,7 +7282,7 @@
       <c r="AW106" s="17"/>
       <c r="AX106" s="17"/>
     </row>
-    <row r="107" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
@@ -7333,7 +7333,7 @@
       <c r="AW107" s="17"/>
       <c r="AX107" s="17"/>
     </row>
-    <row r="108" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
@@ -7384,7 +7384,7 @@
       <c r="AW108" s="17"/>
       <c r="AX108" s="17"/>
     </row>
-    <row r="109" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
@@ -7435,7 +7435,7 @@
       <c r="AW109" s="17"/>
       <c r="AX109" s="17"/>
     </row>
-    <row r="110" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
       <c r="D110" s="13"/>
@@ -7486,7 +7486,7 @@
       <c r="AW110" s="17"/>
       <c r="AX110" s="17"/>
     </row>
-    <row r="111" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
@@ -7537,7 +7537,7 @@
       <c r="AW111" s="17"/>
       <c r="AX111" s="17"/>
     </row>
-    <row r="112" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
@@ -7588,7 +7588,7 @@
       <c r="AW112" s="17"/>
       <c r="AX112" s="17"/>
     </row>
-    <row r="113" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
@@ -7639,7 +7639,7 @@
       <c r="AW113" s="17"/>
       <c r="AX113" s="17"/>
     </row>
-    <row r="114" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
@@ -7690,7 +7690,7 @@
       <c r="AW114" s="17"/>
       <c r="AX114" s="17"/>
     </row>
-    <row r="115" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
@@ -7741,7 +7741,7 @@
       <c r="AW115" s="17"/>
       <c r="AX115" s="17"/>
     </row>
-    <row r="116" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
@@ -7792,7 +7792,7 @@
       <c r="AW116" s="17"/>
       <c r="AX116" s="17"/>
     </row>
-    <row r="117" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
       <c r="D117" s="13"/>
@@ -7843,7 +7843,7 @@
       <c r="AW117" s="17"/>
       <c r="AX117" s="17"/>
     </row>
-    <row r="118" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
       <c r="D118" s="13"/>
@@ -7894,7 +7894,7 @@
       <c r="AW118" s="17"/>
       <c r="AX118" s="17"/>
     </row>
-    <row r="119" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
       <c r="D119" s="13"/>
@@ -7945,7 +7945,7 @@
       <c r="AW119" s="17"/>
       <c r="AX119" s="17"/>
     </row>
-    <row r="120" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
       <c r="D120" s="13"/>
@@ -7996,7 +7996,7 @@
       <c r="AW120" s="17"/>
       <c r="AX120" s="17"/>
     </row>
-    <row r="121" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
@@ -8047,7 +8047,7 @@
       <c r="AW121" s="17"/>
       <c r="AX121" s="17"/>
     </row>
-    <row r="122" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
       <c r="D122" s="13"/>
@@ -8098,7 +8098,7 @@
       <c r="AW122" s="17"/>
       <c r="AX122" s="17"/>
     </row>
-    <row r="123" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
@@ -8149,7 +8149,7 @@
       <c r="AW123" s="17"/>
       <c r="AX123" s="17"/>
     </row>
-    <row r="124" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
@@ -8200,7 +8200,7 @@
       <c r="AW124" s="17"/>
       <c r="AX124" s="17"/>
     </row>
-    <row r="125" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
@@ -8251,7 +8251,7 @@
       <c r="AW125" s="17"/>
       <c r="AX125" s="17"/>
     </row>
-    <row r="126" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
@@ -8302,7 +8302,7 @@
       <c r="AW126" s="17"/>
       <c r="AX126" s="17"/>
     </row>
-    <row r="127" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
@@ -8353,7 +8353,7 @@
       <c r="AW127" s="17"/>
       <c r="AX127" s="17"/>
     </row>
-    <row r="128" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
@@ -8404,7 +8404,7 @@
       <c r="AW128" s="17"/>
       <c r="AX128" s="17"/>
     </row>
-    <row r="129" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
@@ -8455,7 +8455,7 @@
       <c r="AW129" s="17"/>
       <c r="AX129" s="17"/>
     </row>
-    <row r="130" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
@@ -8506,7 +8506,7 @@
       <c r="AW130" s="17"/>
       <c r="AX130" s="17"/>
     </row>
-    <row r="131" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
@@ -8557,7 +8557,7 @@
       <c r="AW131" s="17"/>
       <c r="AX131" s="17"/>
     </row>
-    <row r="132" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
       <c r="D132" s="13"/>
@@ -8608,7 +8608,7 @@
       <c r="AW132" s="17"/>
       <c r="AX132" s="17"/>
     </row>
-    <row r="133" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
       <c r="D133" s="13"/>
@@ -8659,7 +8659,7 @@
       <c r="AW133" s="17"/>
       <c r="AX133" s="17"/>
     </row>
-    <row r="134" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
       <c r="D134" s="13"/>
@@ -8710,7 +8710,7 @@
       <c r="AW134" s="17"/>
       <c r="AX134" s="17"/>
     </row>
-    <row r="135" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B135" s="13"/>
       <c r="C135" s="13"/>
       <c r="D135" s="13"/>
@@ -8761,7 +8761,7 @@
       <c r="AW135" s="17"/>
       <c r="AX135" s="17"/>
     </row>
-    <row r="136" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
       <c r="D136" s="13"/>
@@ -8812,7 +8812,7 @@
       <c r="AW136" s="17"/>
       <c r="AX136" s="17"/>
     </row>
-    <row r="137" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
       <c r="D137" s="13"/>
@@ -8863,7 +8863,7 @@
       <c r="AW137" s="17"/>
       <c r="AX137" s="17"/>
     </row>
-    <row r="138" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
       <c r="D138" s="13"/>
@@ -8914,7 +8914,7 @@
       <c r="AW138" s="17"/>
       <c r="AX138" s="17"/>
     </row>
-    <row r="139" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13"/>
@@ -8965,7 +8965,7 @@
       <c r="AW139" s="17"/>
       <c r="AX139" s="17"/>
     </row>
-    <row r="140" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
       <c r="D140" s="13"/>
@@ -9016,7 +9016,7 @@
       <c r="AW140" s="17"/>
       <c r="AX140" s="17"/>
     </row>
-    <row r="141" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
       <c r="D141" s="13"/>
@@ -9067,7 +9067,7 @@
       <c r="AW141" s="17"/>
       <c r="AX141" s="17"/>
     </row>
-    <row r="142" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
       <c r="D142" s="13"/>
@@ -9118,7 +9118,7 @@
       <c r="AW142" s="17"/>
       <c r="AX142" s="17"/>
     </row>
-    <row r="143" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
       <c r="D143" s="13"/>
@@ -9169,7 +9169,7 @@
       <c r="AW143" s="17"/>
       <c r="AX143" s="17"/>
     </row>
-    <row r="144" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
       <c r="D144" s="13"/>
@@ -9220,7 +9220,7 @@
       <c r="AW144" s="17"/>
       <c r="AX144" s="17"/>
     </row>
-    <row r="145" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B145" s="13"/>
       <c r="C145" s="13"/>
       <c r="D145" s="13"/>
@@ -9271,7 +9271,7 @@
       <c r="AW145" s="17"/>
       <c r="AX145" s="17"/>
     </row>
-    <row r="146" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
       <c r="D146" s="13"/>
@@ -9322,7 +9322,7 @@
       <c r="AW146" s="17"/>
       <c r="AX146" s="17"/>
     </row>
-    <row r="147" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B147" s="13"/>
       <c r="C147" s="13"/>
       <c r="D147" s="13"/>
@@ -9373,7 +9373,7 @@
       <c r="AW147" s="17"/>
       <c r="AX147" s="17"/>
     </row>
-    <row r="148" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
       <c r="D148" s="13"/>
@@ -9424,7 +9424,7 @@
       <c r="AW148" s="17"/>
       <c r="AX148" s="17"/>
     </row>
-    <row r="149" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
       <c r="D149" s="13"/>
@@ -9475,7 +9475,7 @@
       <c r="AW149" s="17"/>
       <c r="AX149" s="17"/>
     </row>
-    <row r="150" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
       <c r="D150" s="13"/>
@@ -9526,7 +9526,7 @@
       <c r="AW150" s="17"/>
       <c r="AX150" s="17"/>
     </row>
-    <row r="151" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
       <c r="D151" s="13"/>
@@ -9577,7 +9577,7 @@
       <c r="AW151" s="17"/>
       <c r="AX151" s="17"/>
     </row>
-    <row r="152" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
       <c r="D152" s="13"/>
@@ -9628,7 +9628,7 @@
       <c r="AW152" s="17"/>
       <c r="AX152" s="17"/>
     </row>
-    <row r="153" spans="2:50" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
@@ -9690,6 +9690,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="30dd1bc9-520c-4869-8c8c-9a8c02d447dc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000611BC576570B445AD683FFF8493BECF" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8f98cbd5f5efdf85b388a7f4f496b5c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="30dd1bc9-520c-4869-8c8c-9a8c02d447dc" xmlns:ns3="cb757152-6290-4f10-9526-458cf73e4534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d01b020bb47f93ef4b15ba88ec310de" ns2:_="" ns3:_="">
     <xsd:import namespace="30dd1bc9-520c-4869-8c8c-9a8c02d447dc"/>
@@ -9902,29 +9924,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{835ABA4C-D6EA-49A5-9060-312A4F715216}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="30dd1bc9-520c-4869-8c8c-9a8c02d447dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="cb757152-6290-4f10-9526-458cf73e4534"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="30dd1bc9-520c-4869-8c8c-9a8c02d447dc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{303203A5-A967-4128-8341-A09995CFC842}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54D2CF6A-BE6D-4F0E-8693-F13D78BF2116}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9943,31 +9968,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{303203A5-A967-4128-8341-A09995CFC842}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{835ABA4C-D6EA-49A5-9060-312A4F715216}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="30dd1bc9-520c-4869-8c8c-9a8c02d447dc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="cb757152-6290-4f10-9526-458cf73e4534"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{37c354b2-85b0-47f5-b222-07b48d774ee3}" enabled="0" method="" siteId="{37c354b2-85b0-47f5-b222-07b48d774ee3}" removed="1"/>
